--- a/www/IndicatorsPerCountry/SaudiArabia_GDPperCapita_TerritorialRef_2000_2012_CCode_682.xlsx
+++ b/www/IndicatorsPerCountry/SaudiArabia_GDPperCapita_TerritorialRef_2000_2012_CCode_682.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SaudiArabia_GDPperCapita_TerritorialRef_2000_2012_CCode_682.xlsx
+++ b/www/IndicatorsPerCountry/SaudiArabia_GDPperCapita_TerritorialRef_2000_2012_CCode_682.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="90">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,217 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2231</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>2470</t>
-  </si>
-  <si>
-    <t>2664</t>
-  </si>
-  <si>
-    <t>2912</t>
-  </si>
-  <si>
-    <t>2922</t>
-  </si>
-  <si>
-    <t>3075</t>
-  </si>
-  <si>
-    <t>3119</t>
-  </si>
-  <si>
-    <t>3204</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>3719</t>
-  </si>
-  <si>
-    <t>4066</t>
-  </si>
-  <si>
-    <t>4445</t>
-  </si>
-  <si>
-    <t>4715</t>
-  </si>
-  <si>
-    <t>5005</t>
-  </si>
-  <si>
-    <t>5469</t>
-  </si>
-  <si>
-    <t>6102</t>
-  </si>
-  <si>
-    <t>6463</t>
-  </si>
-  <si>
-    <t>6848</t>
-  </si>
-  <si>
-    <t>7170</t>
-  </si>
-  <si>
-    <t>7624</t>
-  </si>
-  <si>
-    <t>8475</t>
-  </si>
-  <si>
-    <t>9497</t>
-  </si>
-  <si>
-    <t>11040</t>
-  </si>
-  <si>
-    <t>12333</t>
-  </si>
-  <si>
-    <t>11787</t>
-  </si>
-  <si>
-    <t>12106</t>
-  </si>
-  <si>
-    <t>13064</t>
+    <t>797</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>3556</t>
+  </si>
+  <si>
+    <t>3784</t>
+  </si>
+  <si>
+    <t>3937</t>
+  </si>
+  <si>
+    <t>4246</t>
+  </si>
+  <si>
+    <t>4642</t>
+  </si>
+  <si>
+    <t>4658</t>
+  </si>
+  <si>
+    <t>4901</t>
+  </si>
+  <si>
+    <t>4972</t>
+  </si>
+  <si>
+    <t>5107</t>
+  </si>
+  <si>
+    <t>5512</t>
+  </si>
+  <si>
+    <t>5928</t>
+  </si>
+  <si>
+    <t>6481</t>
+  </si>
+  <si>
+    <t>7085</t>
+  </si>
+  <si>
+    <t>7516</t>
+  </si>
+  <si>
+    <t>7978</t>
+  </si>
+  <si>
+    <t>8717</t>
+  </si>
+  <si>
+    <t>9726</t>
+  </si>
+  <si>
+    <t>10302</t>
+  </si>
+  <si>
+    <t>10916</t>
+  </si>
+  <si>
+    <t>11429</t>
+  </si>
+  <si>
+    <t>12153</t>
+  </si>
+  <si>
+    <t>13509</t>
+  </si>
+  <si>
+    <t>15138</t>
+  </si>
+  <si>
+    <t>17598</t>
+  </si>
+  <si>
+    <t>19659</t>
+  </si>
+  <si>
+    <t>18788</t>
+  </si>
+  <si>
+    <t>19297</t>
+  </si>
+  <si>
+    <t>20824</t>
+  </si>
+  <si>
+    <t>20593</t>
+  </si>
+  <si>
+    <t>20472</t>
+  </si>
+  <si>
+    <t>21068</t>
+  </si>
+  <si>
+    <t>21393</t>
+  </si>
+  <si>
+    <t>20535</t>
+  </si>
+  <si>
+    <t>17315</t>
+  </si>
+  <si>
+    <t>16343</t>
+  </si>
+  <si>
+    <t>14422</t>
+  </si>
+  <si>
+    <t>12897</t>
   </si>
   <si>
     <t>12919</t>
   </si>
   <si>
-    <t>12843</t>
-  </si>
-  <si>
-    <t>13217</t>
-  </si>
-  <si>
-    <t>13421</t>
-  </si>
-  <si>
-    <t>12883</t>
-  </si>
-  <si>
-    <t>10863</t>
-  </si>
-  <si>
-    <t>10253</t>
-  </si>
-  <si>
-    <t>9048</t>
-  </si>
-  <si>
-    <t>8091</t>
-  </si>
-  <si>
-    <t>8105</t>
-  </si>
-  <si>
-    <t>8027</t>
-  </si>
-  <si>
-    <t>8004</t>
-  </si>
-  <si>
-    <t>8993.22323477</t>
-  </si>
-  <si>
-    <t>9664.53347496</t>
-  </si>
-  <si>
-    <t>9664.35180165</t>
-  </si>
-  <si>
-    <t>9351.43362916</t>
-  </si>
-  <si>
-    <t>9120.86030319</t>
-  </si>
-  <si>
-    <t>8869.92989618</t>
-  </si>
-  <si>
-    <t>8914.20986288</t>
-  </si>
-  <si>
-    <t>8903.02184134</t>
-  </si>
-  <si>
-    <t>8925.39656227</t>
-  </si>
-  <si>
-    <t>8647.83872881</t>
-  </si>
-  <si>
-    <t>8861.15832</t>
-  </si>
-  <si>
-    <t>8711.74325303</t>
-  </si>
-  <si>
-    <t>8535.69940612</t>
-  </si>
-  <si>
-    <t>9000.02638187</t>
-  </si>
-  <si>
-    <t>9287.41846997</t>
-  </si>
-  <si>
-    <t>9619.82572695</t>
-  </si>
-  <si>
-    <t>9745.92035957</t>
-  </si>
-  <si>
-    <t>9769.89997763</t>
-  </si>
-  <si>
-    <t>10011.946667</t>
-  </si>
-  <si>
-    <t>9858.68181249</t>
-  </si>
-  <si>
-    <t>10201.1263892</t>
+    <t>12795</t>
+  </si>
+  <si>
+    <t>12758</t>
+  </si>
+  <si>
+    <t>14335</t>
+  </si>
+  <si>
+    <t>16830.4130827267</t>
+  </si>
+  <si>
+    <t>17905.2801642793</t>
+  </si>
+  <si>
+    <t>18101.0922188803</t>
+  </si>
+  <si>
+    <t>18678.9314931619</t>
+  </si>
+  <si>
+    <t>19223.3310695078</t>
+  </si>
+  <si>
+    <t>20280.4931846211</t>
+  </si>
+  <si>
+    <t>21087.4273528786</t>
+  </si>
+  <si>
+    <t>22310.9178178419</t>
+  </si>
+  <si>
+    <t>22058.5730682838</t>
+  </si>
+  <si>
+    <t>23904.515387401</t>
+  </si>
+  <si>
+    <t>24191.9958170021</t>
+  </si>
+  <si>
+    <t>24053.9739107906</t>
+  </si>
+  <si>
+    <t>27367.0937506739</t>
+  </si>
+  <si>
+    <t>30233.5109211299</t>
+  </si>
+  <si>
+    <t>32700.3325983716</t>
+  </si>
+  <si>
+    <t>34483.0435442961</t>
+  </si>
+  <si>
+    <t>36070.3170659639</t>
+  </si>
+  <si>
+    <t>39393.4288564951</t>
+  </si>
+  <si>
+    <t>39671.5553186176</t>
+  </si>
+  <si>
+    <t>42737.6547241473</t>
+  </si>
+  <si>
+    <t>48470</t>
+  </si>
+  <si>
+    <t>49867</t>
+  </si>
+  <si>
+    <t>50005</t>
+  </si>
+  <si>
+    <t>50693</t>
+  </si>
+  <si>
+    <t>51681</t>
+  </si>
+  <si>
+    <t>51397</t>
   </si>
   <si>
     <t>Description</t>
@@ -331,7 +361,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1950.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -348,7 +378,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1951.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -365,10 +395,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1952.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -382,10 +412,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1953.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -399,10 +429,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1954.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -416,10 +446,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1955.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -433,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1956.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -450,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1957.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -467,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1958.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -484,10 +514,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1959.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -501,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1960.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -518,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1961.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -535,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1962.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -552,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1963.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -569,10 +599,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1964.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1965.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -603,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1966.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -620,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1967.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -637,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1968.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -654,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1969.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1970.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -688,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1971.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -705,10 +735,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1972.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -722,10 +752,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1973.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -739,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1974.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -756,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1975.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -773,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1976.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -790,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1977.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -807,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1978.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -824,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1979.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -841,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1980.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -858,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1981.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -875,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1982.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -892,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1983.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -909,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1984.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -926,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1985.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -943,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1986.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -960,10 +990,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1987.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -977,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1988.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1989.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1011,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1990.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1028,10 +1058,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1991.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1045,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1992.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1062,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1993.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1994.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1096,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1995.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1996.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1130,10 +1160,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1997.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1147,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1998.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1164,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1999.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1181,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>2000.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1198,10 +1228,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2001.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1215,10 +1245,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2002.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1232,10 +1262,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2003.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1249,10 +1279,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2004.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1266,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>2005.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1283,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>2006.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1300,10 +1330,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>2007.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1317,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>2008.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1334,10 +1364,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2009.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1351,10 +1381,2322 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1886.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1893.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E62" t="s">
-        <v>67</v>
+      <c r="E192" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1372,50 +3714,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
